--- a/myapp/files/9_MethodComparePercent/Scenario 290.xlsx
+++ b/myapp/files/9_MethodComparePercent/Scenario 290.xlsx
@@ -581,10 +581,10 @@
         <v>12</v>
       </c>
       <c r="E2" t="n">
-        <v>1215</v>
+        <v>7859</v>
       </c>
       <c r="F2" t="n">
-        <v>1.70559829299792</v>
+        <v>1.40318989574722</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -593,10 +593,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J2" t="n">
-        <v>2.12765957446809</v>
+        <v>1.50375939849624</v>
       </c>
       <c r="K2" t="n">
         <v>1</v>
@@ -619,10 +619,10 @@
         <v>14</v>
       </c>
       <c r="E3" t="n">
-        <v>2792</v>
+        <v>13808</v>
       </c>
       <c r="F3" t="n">
-        <v>3.919366612387</v>
+        <v>2.46535768933422</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -631,10 +631,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J3" t="n">
-        <v>4.25531914893617</v>
+        <v>1.8796992481203</v>
       </c>
       <c r="K3" t="n">
         <v>1</v>
@@ -657,10 +657,10 @@
         <v>16</v>
       </c>
       <c r="E4" t="n">
-        <v>4308</v>
+        <v>15848</v>
       </c>
       <c r="F4" t="n">
-        <v>6.04750407097535</v>
+        <v>2.82959071991373</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -669,10 +669,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="J4" t="n">
-        <v>6.38297872340426</v>
+        <v>3.38345864661654</v>
       </c>
       <c r="K4" t="n">
         <v>2</v>
@@ -695,10 +695,10 @@
         <v>18</v>
       </c>
       <c r="E5" t="n">
-        <v>2546</v>
+        <v>14293</v>
       </c>
       <c r="F5" t="n">
-        <v>3.57403559997754</v>
+        <v>2.55195230689847</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -707,10 +707,10 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="J5" t="n">
-        <v>4.25531914893617</v>
+        <v>2.63157894736842</v>
       </c>
       <c r="K5" t="n">
         <v>2</v>
@@ -733,10 +733,10 @@
         <v>20</v>
       </c>
       <c r="E6" t="n">
-        <v>5767</v>
+        <v>16714</v>
       </c>
       <c r="F6" t="n">
-        <v>8.09562580717615</v>
+        <v>2.98421121230679</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
@@ -745,10 +745,10 @@
         <v>1.47058823529412</v>
       </c>
       <c r="I6" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J6" t="n">
-        <v>4.25531914893617</v>
+        <v>1.8796992481203</v>
       </c>
       <c r="K6" t="n">
         <v>3</v>
@@ -771,10 +771,10 @@
         <v>12</v>
       </c>
       <c r="E7" t="n">
-        <v>340</v>
+        <v>10151</v>
       </c>
       <c r="F7" t="n">
-        <v>0.47728676511876</v>
+        <v>1.81241641833949</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J7" t="n">
-        <v>2.12765957446809</v>
+        <v>1.8796992481203</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -809,10 +809,10 @@
         <v>14</v>
       </c>
       <c r="E8" t="n">
-        <v>1620</v>
+        <v>23772</v>
       </c>
       <c r="F8" t="n">
-        <v>2.27413105733056</v>
+        <v>4.24438607987059</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -821,10 +821,10 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J8" t="n">
-        <v>2.12765957446809</v>
+        <v>2.63157894736842</v>
       </c>
       <c r="K8" t="n">
         <v>3</v>
@@ -847,10 +847,10 @@
         <v>16</v>
       </c>
       <c r="E9" t="n">
-        <v>360</v>
+        <v>24339</v>
       </c>
       <c r="F9" t="n">
-        <v>0.50536245718457</v>
+        <v>4.34562143689931</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
@@ -859,10 +859,10 @@
         <v>1.47058823529412</v>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="J9" t="n">
-        <v>2.12765957446809</v>
+        <v>3.38345864661654</v>
       </c>
       <c r="K9" t="n">
         <v>1</v>
@@ -885,10 +885,10 @@
         <v>18</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>19028</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>3.39736573817001</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -897,10 +897,10 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>2.63157894736842</v>
       </c>
       <c r="K10" t="n">
         <v>1</v>
@@ -923,10 +923,10 @@
         <v>20</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>11796</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>2.10612393564502</v>
       </c>
       <c r="G11" t="n">
         <v>1</v>
@@ -935,10 +935,10 @@
         <v>1.47058823529412</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>1.50375939849624</v>
       </c>
       <c r="K11" t="n">
         <v>1</v>
@@ -961,10 +961,10 @@
         <v>12</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>7257</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>1.29570544260562</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -973,10 +973,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>1.12781954887218</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -999,10 +999,10 @@
         <v>14</v>
       </c>
       <c r="E13" t="n">
-        <v>2016</v>
+        <v>30667</v>
       </c>
       <c r="F13" t="n">
-        <v>2.83002976023359</v>
+        <v>5.47545801410867</v>
       </c>
       <c r="G13" t="n">
         <v>1</v>
@@ -1011,10 +1011,10 @@
         <v>1.47058823529412</v>
       </c>
       <c r="I13" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="J13" t="n">
-        <v>2.12765957446809</v>
+        <v>3.38345864661654</v>
       </c>
       <c r="K13" t="n">
         <v>2</v>
@@ -1037,10 +1037,10 @@
         <v>16</v>
       </c>
       <c r="E14" t="n">
-        <v>5460</v>
+        <v>47901</v>
       </c>
       <c r="F14" t="n">
-        <v>7.66466393396597</v>
+        <v>8.55251294009259</v>
       </c>
       <c r="G14" t="n">
         <v>6</v>
@@ -1049,10 +1049,10 @@
         <v>8.82352941176471</v>
       </c>
       <c r="I14" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="J14" t="n">
-        <v>4.25531914893617</v>
+        <v>5.6390977443609</v>
       </c>
       <c r="K14" t="n">
         <v>10</v>
@@ -1075,10 +1075,10 @@
         <v>18</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>22011</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>3.92996727259093</v>
       </c>
       <c r="G15" t="n">
         <v>4</v>
@@ -1087,10 +1087,10 @@
         <v>5.88235294117647</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>4.13533834586466</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1113,10 +1113,10 @@
         <v>20</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>15154</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>2.7056800712754</v>
       </c>
       <c r="G16" t="n">
         <v>3</v>
@@ -1125,10 +1125,10 @@
         <v>4.41176470588235</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>3.00751879699248</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1151,10 +1151,10 @@
         <v>12</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>5196</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>0.927722954358387</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -1163,10 +1163,10 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>2.25563909774436</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1189,10 +1189,10 @@
         <v>14</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>20635</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>3.68428852255299</v>
       </c>
       <c r="G18" t="n">
         <v>1</v>
@@ -1201,10 +1201,10 @@
         <v>1.47058823529412</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>4.13533834586466</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1227,10 +1227,10 @@
         <v>16</v>
       </c>
       <c r="E19" t="n">
-        <v>1728</v>
+        <v>42860</v>
       </c>
       <c r="F19" t="n">
-        <v>2.42573979448593</v>
+        <v>7.65246455423412</v>
       </c>
       <c r="G19" t="n">
         <v>7</v>
@@ -1239,10 +1239,10 @@
         <v>10.2941176470588</v>
       </c>
       <c r="I19" t="n">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="J19" t="n">
-        <v>2.12765957446809</v>
+        <v>8.27067669172932</v>
       </c>
       <c r="K19" t="n">
         <v>3</v>
@@ -1265,10 +1265,10 @@
         <v>18</v>
       </c>
       <c r="E20" t="n">
-        <v>5703</v>
+        <v>41127</v>
       </c>
       <c r="F20" t="n">
-        <v>8.00578359256556</v>
+        <v>7.34304502384477</v>
       </c>
       <c r="G20" t="n">
         <v>17</v>
@@ -1277,10 +1277,10 @@
         <v>25</v>
       </c>
       <c r="I20" t="n">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="J20" t="n">
-        <v>8.51063829787234</v>
+        <v>9.77443609022556</v>
       </c>
       <c r="K20" t="n">
         <v>9</v>
@@ -1303,10 +1303,10 @@
         <v>20</v>
       </c>
       <c r="E21" t="n">
-        <v>2373</v>
+        <v>32671</v>
       </c>
       <c r="F21" t="n">
-        <v>3.33118086360829</v>
+        <v>5.83326340297207</v>
       </c>
       <c r="G21" t="n">
         <v>7</v>
@@ -1315,16 +1315,16 @@
         <v>10.2941176470588</v>
       </c>
       <c r="I21" t="n">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="J21" t="n">
-        <v>6.38297872340426</v>
+        <v>7.14285714285714</v>
       </c>
       <c r="K21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L21" t="n">
-        <v>4.41176470588235</v>
+        <v>2.94117647058824</v>
       </c>
     </row>
     <row r="22">
@@ -1341,10 +1341,10 @@
         <v>12</v>
       </c>
       <c r="E22" t="n">
-        <v>2050</v>
+        <v>10356</v>
       </c>
       <c r="F22" t="n">
-        <v>2.87775843674547</v>
+        <v>1.84901826700067</v>
       </c>
       <c r="G22" t="n">
         <v>1</v>
@@ -1353,10 +1353,10 @@
         <v>1.47058823529412</v>
       </c>
       <c r="I22" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J22" t="n">
-        <v>2.12765957446809</v>
+        <v>2.25563909774436</v>
       </c>
       <c r="K22" t="n">
         <v>1</v>
@@ -1379,10 +1379,10 @@
         <v>14</v>
       </c>
       <c r="E23" t="n">
-        <v>4406</v>
+        <v>22410</v>
       </c>
       <c r="F23" t="n">
-        <v>6.18507496209782</v>
+        <v>4.0012069682778</v>
       </c>
       <c r="G23" t="n">
         <v>1</v>
@@ -1391,10 +1391,10 @@
         <v>1.47058823529412</v>
       </c>
       <c r="I23" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="J23" t="n">
-        <v>4.25531914893617</v>
+        <v>3.38345864661654</v>
       </c>
       <c r="K23" t="n">
         <v>2</v>
@@ -1417,10 +1417,10 @@
         <v>16</v>
       </c>
       <c r="E24" t="n">
-        <v>7383</v>
+        <v>35356</v>
       </c>
       <c r="F24" t="n">
-        <v>10.3641417260935</v>
+        <v>6.31265834763186</v>
       </c>
       <c r="G24" t="n">
         <v>2</v>
@@ -1429,10 +1429,10 @@
         <v>2.94117647058824</v>
       </c>
       <c r="I24" t="n">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="J24" t="n">
-        <v>6.38297872340426</v>
+        <v>6.01503759398496</v>
       </c>
       <c r="K24" t="n">
         <v>8</v>
@@ -1455,10 +1455,10 @@
         <v>18</v>
       </c>
       <c r="E25" t="n">
-        <v>9274</v>
+        <v>28714</v>
       </c>
       <c r="F25" t="n">
-        <v>13.0186984109158</v>
+        <v>5.12675845100976</v>
       </c>
       <c r="G25" t="n">
         <v>6</v>
@@ -1467,10 +1467,10 @@
         <v>8.82352941176471</v>
       </c>
       <c r="I25" t="n">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="J25" t="n">
-        <v>19.1489361702128</v>
+        <v>9.02255639097744</v>
       </c>
       <c r="K25" t="n">
         <v>4</v>
@@ -1493,10 +1493,10 @@
         <v>20</v>
       </c>
       <c r="E26" t="n">
-        <v>11895</v>
+        <v>40158</v>
       </c>
       <c r="F26" t="n">
-        <v>16.6980178561402</v>
+        <v>7.1700343343195</v>
       </c>
       <c r="G26" t="n">
         <v>9</v>
@@ -1505,10 +1505,10 @@
         <v>13.2352941176471</v>
       </c>
       <c r="I26" t="n">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="J26" t="n">
-        <v>17.0212765957447</v>
+        <v>7.14285714285714</v>
       </c>
       <c r="K26" t="n">
         <v>11</v>
